--- a/QLWeb/Templates/BaoCaoTonKho.xlsx
+++ b/QLWeb/Templates/BaoCaoTonKho.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngo Cong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ood\UITPhone\UITPhone\QLWeb\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B58C3031-5B39-455A-BB57-163CCA7AD81A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21876" windowHeight="6672"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21870" windowHeight="6675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,10 +113,12 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -392,26 +395,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
